--- a/performance_results_ratio_subroutine_RIDGE.xlsx
+++ b/performance_results_ratio_subroutine_RIDGE.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4173739546312292</v>
+        <v>0.4265172088488104</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1974737849761189</v>
+        <v>0.1677547710530642</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3872505296973856</v>
+        <v>0.4232296516680535</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1712206116493861</v>
+        <v>0.1708844838550082</v>
       </c>
     </row>
     <row r="4">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.390083986784598</v>
+        <v>0.4363627559067028</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4054630267940146</v>
+        <v>0.4434817864934192</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5890648417253345</v>
+        <v>0.7583379271136065</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>

--- a/performance_results_ratio_subroutine_RIDGE.xlsx
+++ b/performance_results_ratio_subroutine_RIDGE.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4265172088488104</v>
+        <v>0.4206459109334596</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1677547710530642</v>
+        <v>0.1702196195209573</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4232296516680535</v>
+        <v>0.4666080831963816</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1708844838550082</v>
+        <v>0.1361375211308448</v>
       </c>
     </row>
     <row r="4">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4363627559067028</v>
+        <v>0.437894776371142</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4434817864934192</v>
+        <v>0.3932752603332251</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7583379271136065</v>
+        <v>0.6834690577753076</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
